--- a/pedestrian_documents/submission_phase2.xlsx
+++ b/pedestrian_documents/submission_phase2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\workspace\PythonWorkspace\pedestrian\pedestrian_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA09C61-638D-4B66-945C-D3D1245B89C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DFDB20-84A2-478B-B05D-41F3AF593949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>model</t>
   </si>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>vgg19bn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误数据重标记后训练</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1135,7 +1139,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1451,9 +1455,42 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
       <c r="R6">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">

--- a/pedestrian_documents/submission_phase2.xlsx
+++ b/pedestrian_documents/submission_phase2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\workspace\PythonWorkspace\pedestrian\pedestrian_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DFDB20-84A2-478B-B05D-41F3AF593949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346E90A5-7AA1-470E-A13A-13CE5A8B5BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>model</t>
   </si>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>原数据集第一次训练</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>my_vgg16_b16_upper_colors_12</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -179,7 +175,59 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>vgg19bn</t>
+    <t>my_vgg19bn_b16_lower_colors_15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_main_7_props_15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_upper_colors_15</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正PedestrianMain7Props数据集的标签错误代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>原数据集第一次训练，存在PedestrianMain7Props数据集的标签错误代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在PedestrianMain7Props数据集的标签错误代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>vgg19bn，存在PedestrianMain7Props数据集的标签错误代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误数据重标记后训练，存在PedestrianMain7Props数据集的标签错误代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_lower_colors_16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_main_7_props_16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_upper_colors_16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_lower_colors_17</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_main_7_props_17</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_upper_colors_17</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1139,7 +1187,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1228,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1246,7 +1294,7 @@
         <v>0.5</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -1277,7 +1325,7 @@
         <v>63.94</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
@@ -1285,13 +1333,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1306,7 +1354,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -1336,19 +1384,22 @@
       <c r="S3">
         <v>63.34</v>
       </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1363,7 +1414,7 @@
         <v>0.5</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -1394,21 +1445,21 @@
         <v>66.37</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1423,7 +1474,7 @@
         <v>0.5</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -1453,19 +1504,22 @@
       <c r="S5">
         <v>65.62</v>
       </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1480,29 +1534,158 @@
         <v>0.5</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
       </c>
+      <c r="L6">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>52.37</v>
+      </c>
+      <c r="N6">
+        <v>29</v>
+      </c>
+      <c r="O6">
+        <v>55.05</v>
+      </c>
+      <c r="P6">
+        <v>32</v>
+      </c>
+      <c r="Q6">
+        <v>66</v>
+      </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.027608695652162</v>
+      </c>
+      <c r="S6">
+        <v>65.23</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>56.26</v>
+      </c>
+      <c r="N7">
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="P7">
+        <v>34</v>
+      </c>
+      <c r="Q7">
+        <v>65.48</v>
+      </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.859565217391307</v>
+      </c>
+      <c r="S7">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="T7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>58.39</v>
+      </c>
+      <c r="N8">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="P8">
+        <v>27</v>
+      </c>
+      <c r="Q8">
+        <v>66.099999999999994</v>
+      </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.311956521739134</v>
+      </c>
+      <c r="S8">
+        <v>71.8</v>
+      </c>
+      <c r="T8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">

--- a/pedestrian_documents/submission_phase2.xlsx
+++ b/pedestrian_documents/submission_phase2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\workspace\PythonWorkspace\pedestrian\pedestrian_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346E90A5-7AA1-470E-A13A-13CE5A8B5BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D511D8-9DE5-4759-B0B8-7CC3F61AD290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="submission_phase2" sheetId="1" r:id="rId1"/>
+    <sheet name="f1_classes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>model</t>
   </si>
@@ -232,6 +233,94 @@
   </si>
   <si>
     <t>错误数据重标记后训练</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_resnet50_b64_upper_colors_18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_resnet50_b64_lower_colors_18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_resnet50_b64_main_7_props_18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_resnet50_b64_384_lower_colors_19</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>384*384</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_resnet50_b64_384_main_7_props_19</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_resnet50_b64_384_upper_colors_19</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'lowerBlack': '0.948'}, {'lowerBrown': '0.419'}, {'lowerBlue': '0.802'}, {'lowerGreen': '0.667'}, {'lowerGray': '0.689'}, {'lowerOrange': '0.000'}, {'lowerPink': '0.714'}, {'lowerPurple': '0.333'}, {'lowerRed': '0.762'}, {'lowerWhite': '0.774'}, {'lowerYellow': '0.316'}]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1_class</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'LongSleeve': '0.944'}, {'ShortSleeve': '0.790'}, {'NoSleeve': '0.000'}, {'clothesStyles_Solidcolor': '0.887'}, {'clothesStyles_multicolour': '0.681'}, {'clothesStyles_lattice': '0.700'}, {'Long': '0.813'}, {'middle': '0.340'}, {'Short': '0.850'}, {'Bald': '0.000'}, {'Skirt': '0.827'}, {'Trousers': '0.972'}, {'Shorts': '0.000'}, {'lowerStyles_Solidcolor': '0.981'}, {'lowerStyles_multicolour': '0.567'}, {'lowerStyles_lattice': '0.700'}, {'Sandals': '0.490'}, {'LeatherShoes': '0.402'}, {'Sneaker': '0.923'}, {'else': '0.000'}, {'right': '0.870'}, {'left': '0.905'}, {'front': '0.888'}, {'back': '0.899'}]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'upperBlack': '0.870'}, {'upperBrown': '0.510'}, {'upperBlue': '0.736'}, {'upperGreen': '0.667'}, {'upperGray': '0.638'}, {'upperOrange': '0.571'}, {'upperPink': '0.605'}, {'upperPurple': '0.400'}, {'upperRed': '0.791'}, {'upperWhite': '0.829'}, {'upperYellow': '0.655'}]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_upper_colors_21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重采样</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_lower_colors_21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_vgg19bn_b16_main_7_props_21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensemble_my_resnet50_b64_384_lower_colors_19_my_vgg19bn_b16_lower_colors_21</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensemble</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1186,12 +1275,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" customWidth="1"/>
     <col min="3" max="3" width="13.19921875" customWidth="1"/>
     <col min="4" max="4" width="17.796875" customWidth="1"/>
@@ -1689,27 +1779,186 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>58.48</v>
+      </c>
+      <c r="N9">
+        <v>27</v>
+      </c>
+      <c r="O9">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="P9">
+        <v>26</v>
+      </c>
+      <c r="Q9">
+        <v>65.67</v>
+      </c>
       <c r="R9">
         <f t="shared" si="0"/>
+        <v>63.653260869565216</v>
+      </c>
+      <c r="S9">
+        <v>69.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>64</v>
+      </c>
+      <c r="M10">
+        <v>61.85</v>
+      </c>
+      <c r="N10">
+        <v>77</v>
+      </c>
+      <c r="O10">
+        <v>65.59</v>
+      </c>
+      <c r="P10">
+        <v>60</v>
+      </c>
+      <c r="Q10">
+        <v>66.34</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>64.875</v>
+      </c>
+      <c r="S10">
+        <v>70.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>86.5</v>
+      </c>
+      <c r="N11">
+        <v>37</v>
+      </c>
+      <c r="O11">
+        <v>84.58</v>
+      </c>
+      <c r="P11">
+        <v>35</v>
+      </c>
+      <c r="Q11">
+        <v>73.239999999999995</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>82.327391304347827</v>
+      </c>
+      <c r="S11">
+        <v>72.290000000000006</v>
+      </c>
+      <c r="T11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="T12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
@@ -1794,6 +2043,58 @@
       <c r="R26">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFB4995-5C7B-412B-8DFA-593D27650A12}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
